--- a/Test data/TC01_Register.xlsx
+++ b/Test data/TC01_Register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23CFC2B-E25D-4023-8248-CF19D6B9842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B395FD4-2A11-406C-B180-3E78E2FBB2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="148">
   <si>
     <t>TDID</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>Day</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>Suggestion</t>
@@ -937,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -988,22 +985,22 @@
         <v>50</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>51</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -1012,35 +1009,35 @@
     </row>
     <row r="2" spans="1:18" ht="15.5">
       <c r="A2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -1048,37 +1045,37 @@
     </row>
     <row r="3" spans="1:18" ht="15.5">
       <c r="A3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -1086,37 +1083,37 @@
     </row>
     <row r="4" spans="1:18" ht="15.5">
       <c r="A4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -1124,37 +1121,37 @@
     </row>
     <row r="5" spans="1:18" ht="15.5">
       <c r="A5" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -1162,37 +1159,37 @@
     </row>
     <row r="6" spans="1:18" ht="15.5">
       <c r="A6" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -1200,37 +1197,37 @@
     </row>
     <row r="7" spans="1:18" ht="15.5">
       <c r="A7" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1238,37 +1235,37 @@
     </row>
     <row r="8" spans="1:18" ht="15.5">
       <c r="A8" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -1276,35 +1273,35 @@
     </row>
     <row r="9" spans="1:18" ht="15.5">
       <c r="A9" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1312,37 +1309,37 @@
     </row>
     <row r="10" spans="1:18" ht="15.5">
       <c r="A10" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -1353,34 +1350,34 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -1391,34 +1388,34 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -1429,34 +1426,34 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -1467,34 +1464,34 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -1505,32 +1502,32 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -1541,34 +1538,34 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -1579,34 +1576,34 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -1617,34 +1614,34 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -1655,34 +1652,34 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -1693,34 +1690,34 @@
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -1731,32 +1728,32 @@
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
@@ -1767,34 +1764,34 @@
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
@@ -1805,34 +1802,34 @@
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -1843,34 +1840,34 @@
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
@@ -1881,34 +1878,34 @@
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -1919,34 +1916,34 @@
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -1957,34 +1954,34 @@
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -1995,34 +1992,34 @@
         <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -2033,32 +2030,32 @@
         <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -2069,32 +2066,32 @@
         <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -2105,34 +2102,34 @@
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
@@ -2143,34 +2140,34 @@
         <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
@@ -2181,34 +2178,34 @@
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -2219,34 +2216,34 @@
         <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -2257,34 +2254,34 @@
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -2295,34 +2292,34 @@
         <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
@@ -2333,34 +2330,34 @@
         <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
@@ -2371,32 +2368,32 @@
         <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -2407,34 +2404,34 @@
         <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
@@ -2447,34 +2444,34 @@
         <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
@@ -2487,34 +2484,34 @@
         <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -2527,34 +2524,34 @@
         <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
@@ -2567,34 +2564,34 @@
         <v>37</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -2607,34 +2604,34 @@
         <v>38</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -2647,34 +2644,34 @@
         <v>39</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -2687,34 +2684,34 @@
         <v>40</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -2727,34 +2724,34 @@
         <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
@@ -2770,31 +2767,31 @@
         <v>4</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
@@ -2807,34 +2804,34 @@
         <v>43</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
@@ -2847,34 +2844,34 @@
         <v>44</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
@@ -2887,34 +2884,34 @@
         <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>

--- a/Test data/TC01_Register.xlsx
+++ b/Test data/TC01_Register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B395FD4-2A11-406C-B180-3E78E2FBB2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5756A4-37BC-4EE2-8154-A99AC0409F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>

--- a/Test data/TC01_Register.xlsx
+++ b/Test data/TC01_Register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5756A4-37BC-4EE2-8154-A99AC0409F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15B81FC-782B-4F7A-AE7B-160A29E52D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="150">
   <si>
     <t>TDID</t>
   </si>
@@ -467,6 +467,12 @@
   </si>
   <si>
     <t>Actual result</t>
+  </si>
+  <si>
+    <t>Revised</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -932,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -948,18 +954,18 @@
     <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.36328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="47.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.08984375" style="1" customWidth="1"/>
     <col min="11" max="11" width="153.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.54296875" style="1" customWidth="1"/>
-    <col min="15" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="15.453125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="17" style="1" customWidth="1"/>
+    <col min="13" max="15" width="13.6328125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24.54296875" style="1" customWidth="1"/>
+    <col min="17" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="15.453125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.399999999999999" customHeight="1">
+    <row r="1" spans="1:20" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1000,14 +1006,20 @@
         <v>2</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.5">
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.5">
       <c r="A2" s="3" t="s">
         <v>132</v>
       </c>
@@ -1028,7 +1040,7 @@
         <v>144</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>127</v>
@@ -1041,9 +1053,11 @@
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.5">
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.5">
       <c r="A3" s="3" t="s">
         <v>133</v>
       </c>
@@ -1066,7 +1080,7 @@
         <v>145</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>127</v>
@@ -1079,9 +1093,11 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.5">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.5">
       <c r="A4" s="3" t="s">
         <v>134</v>
       </c>
@@ -1104,7 +1120,7 @@
         <v>144</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>127</v>
@@ -1117,9 +1133,11 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.5">
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.5">
       <c r="A5" s="3" t="s">
         <v>135</v>
       </c>
@@ -1142,7 +1160,7 @@
         <v>145</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>127</v>
@@ -1155,9 +1173,11 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.5">
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.5">
       <c r="A6" s="3" t="s">
         <v>136</v>
       </c>
@@ -1180,7 +1200,7 @@
         <v>144</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>127</v>
@@ -1193,9 +1213,11 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.5">
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.5">
       <c r="A7" s="3" t="s">
         <v>137</v>
       </c>
@@ -1218,7 +1240,7 @@
         <v>145</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>127</v>
@@ -1231,9 +1253,11 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.5">
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.5">
       <c r="A8" s="3" t="s">
         <v>138</v>
       </c>
@@ -1256,7 +1280,7 @@
         <v>144</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>127</v>
@@ -1269,9 +1293,11 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.5">
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.5">
       <c r="A9" s="3" t="s">
         <v>139</v>
       </c>
@@ -1292,7 +1318,7 @@
         <v>145</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>127</v>
@@ -1305,9 +1331,11 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" ht="15.5">
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" ht="15.5">
       <c r="A10" s="3" t="s">
         <v>140</v>
       </c>
@@ -1330,7 +1358,7 @@
         <v>144</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>127</v>
@@ -1343,9 +1371,11 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.5">
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.5">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1368,7 +1398,7 @@
         <v>145</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>127</v>
@@ -1381,9 +1411,11 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.5">
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.5">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1406,7 +1438,7 @@
         <v>144</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>127</v>
@@ -1419,9 +1451,11 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.5">
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.5">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1444,7 +1478,7 @@
         <v>145</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>127</v>
@@ -1457,9 +1491,11 @@
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.5">
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.5">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1482,7 +1518,7 @@
         <v>144</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>127</v>
@@ -1495,9 +1531,11 @@
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.5">
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.5">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -1518,7 +1556,7 @@
         <v>145</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>127</v>
@@ -1531,9 +1569,11 @@
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.5">
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.5">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1556,7 +1596,7 @@
         <v>144</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>127</v>
@@ -1569,9 +1609,11 @@
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.5">
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.5">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1594,7 +1636,7 @@
         <v>145</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>127</v>
@@ -1607,9 +1649,11 @@
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.5">
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.5">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1632,7 +1676,7 @@
         <v>144</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>127</v>
@@ -1645,9 +1689,11 @@
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.5">
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.5">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -1670,7 +1716,7 @@
         <v>145</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>127</v>
@@ -1683,9 +1729,11 @@
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.5">
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.5">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1708,7 +1756,7 @@
         <v>144</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>127</v>
@@ -1721,9 +1769,11 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.5">
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.5">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -1744,7 +1794,7 @@
         <v>145</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>127</v>
@@ -1757,9 +1807,11 @@
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.5">
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.5">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1782,7 +1834,7 @@
         <v>144</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>127</v>
@@ -1795,9 +1847,11 @@
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.5">
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.5">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1820,7 +1874,7 @@
         <v>145</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>127</v>
@@ -1833,9 +1887,11 @@
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.5">
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.5">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -1858,7 +1914,7 @@
         <v>144</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>127</v>
@@ -1871,9 +1927,11 @@
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.5">
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.5">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -1896,7 +1954,7 @@
         <v>145</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>127</v>
@@ -1909,9 +1967,11 @@
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.5">
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.5">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -1934,7 +1994,7 @@
         <v>144</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>127</v>
@@ -1947,9 +2007,11 @@
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.5">
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.5">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -1972,7 +2034,7 @@
         <v>145</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>127</v>
@@ -1985,9 +2047,11 @@
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
-      <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.5">
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.5">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -2010,7 +2074,7 @@
         <v>144</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>127</v>
@@ -2023,9 +2087,11 @@
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.5">
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.5">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -2046,7 +2112,7 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>127</v>
@@ -2059,9 +2125,11 @@
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
-      <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.5">
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.5">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -2095,9 +2163,11 @@
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
-      <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.5">
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.5">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2133,9 +2203,11 @@
       </c>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.5">
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="5"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.5">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2171,9 +2243,11 @@
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="1:16" ht="15.5">
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:18" ht="15.5">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2209,9 +2283,11 @@
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="8"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.5">
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="1:18" ht="15.5">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -2247,9 +2323,11 @@
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.5">
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.5">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -2285,9 +2363,11 @@
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
-      <c r="N35" s="8"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.5">
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.5">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -2323,9 +2403,11 @@
       </c>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="8"/>
-    </row>
-    <row r="37" spans="1:16" ht="15.5">
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.5">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -2361,9 +2443,11 @@
       </c>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="8"/>
-    </row>
-    <row r="38" spans="1:16" ht="15.5">
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.5">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -2386,7 +2470,7 @@
         <v>145</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="4" t="s">
@@ -2397,9 +2481,11 @@
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="5"/>
-    </row>
-    <row r="39" spans="1:16" ht="15.5">
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="5"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.5">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
@@ -2422,7 +2508,7 @@
         <v>144</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>119</v>
@@ -2435,11 +2521,13 @@
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-    </row>
-    <row r="40" spans="1:16" ht="15.5">
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.5">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
@@ -2462,7 +2550,7 @@
         <v>145</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>120</v>
@@ -2475,11 +2563,13 @@
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-    </row>
-    <row r="41" spans="1:16" ht="15.5">
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+    </row>
+    <row r="41" spans="1:18" ht="15.5">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -2502,7 +2592,7 @@
         <v>144</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>121</v>
@@ -2515,11 +2605,13 @@
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-    </row>
-    <row r="42" spans="1:16" ht="15.5">
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+    </row>
+    <row r="42" spans="1:18" ht="15.5">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -2542,7 +2634,7 @@
         <v>145</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>122</v>
@@ -2555,11 +2647,13 @@
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.5">
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+    </row>
+    <row r="43" spans="1:18" ht="15.5">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -2582,7 +2676,7 @@
         <v>144</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I43" s="15" t="s">
         <v>123</v>
@@ -2596,10 +2690,12 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.5">
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+    </row>
+    <row r="44" spans="1:18" ht="15.5">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -2622,7 +2718,7 @@
         <v>145</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I44" s="15" t="s">
         <v>124</v>
@@ -2636,10 +2732,12 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.5">
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+    </row>
+    <row r="45" spans="1:18" ht="15.5">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -2662,7 +2760,7 @@
         <v>144</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I45" s="15" t="s">
         <v>125</v>
@@ -2676,10 +2774,12 @@
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-    </row>
-    <row r="46" spans="1:16" ht="15.5">
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+    </row>
+    <row r="46" spans="1:18" ht="15.5">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
@@ -2702,7 +2802,7 @@
         <v>145</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I46" s="15" t="s">
         <v>126</v>
@@ -2716,10 +2816,12 @@
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-    </row>
-    <row r="47" spans="1:16" ht="15.5">
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+    </row>
+    <row r="47" spans="1:18" ht="15.5">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
@@ -2742,7 +2844,7 @@
         <v>144</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>127</v>
@@ -2756,10 +2858,12 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-    </row>
-    <row r="48" spans="1:16" ht="15.5">
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+    </row>
+    <row r="48" spans="1:18" ht="15.5">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -2795,11 +2899,13 @@
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-    </row>
-    <row r="49" spans="1:16" ht="15.5">
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+    </row>
+    <row r="49" spans="1:18" ht="15.5">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -2835,11 +2941,13 @@
       </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-    </row>
-    <row r="50" spans="1:16" ht="15.5">
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+    </row>
+    <row r="50" spans="1:18" ht="15.5">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -2875,11 +2983,13 @@
       </c>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-    </row>
-    <row r="51" spans="1:16" ht="15.5">
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+    </row>
+    <row r="51" spans="1:18" ht="15.5">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -2915,11 +3025,13 @@
       </c>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-    </row>
-    <row r="52" spans="1:16" ht="15.5">
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+    </row>
+    <row r="52" spans="1:18" ht="15.5">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -2936,8 +3048,10 @@
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
       <c r="P52" s="13"/>
-    </row>
-    <row r="53" spans="1:16" ht="15.5">
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+    </row>
+    <row r="53" spans="1:18" ht="15.5">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -2954,6 +3068,8 @@
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
       <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Test data/TC01_Register.xlsx
+++ b/Test data/TC01_Register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15B81FC-782B-4F7A-AE7B-160A29E52D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F89E7DD-A320-4760-84F6-9EA4B7BC1209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -940,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
